--- a/Documents/todolist.xlsx
+++ b/Documents/todolist.xlsx
@@ -11,13 +11,60 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>下一步工作计划：列出每个月的里程碑，每周讨论确定下一周工作计划？</t>
+  </si>
+  <si>
+    <t>如何获得UI设计：拉做UI的朋友入伙？我们设计好草图了，花钱找人做？</t>
+  </si>
+  <si>
+    <t>确定域名和网站名称：？？？</t>
+  </si>
+  <si>
+    <t>初步确定里程碑：12月31日初步上线“一站式搜索”+“中介档案”？</t>
+  </si>
+  <si>
+    <t>估算初期成本：域名注册（100左右？）+服务器租用（2000一年？）？还有其它直接成本没？</t>
+  </si>
+  <si>
+    <t>确定成本分担方式：433?</t>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码、文档管理方式：GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队分工：我牵头，工作大家共同分担，相互督促？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本的团队制度：不得占用工作时间，每周必须召开一次会议，必须有会议记录，必须按时完成任务，必须xxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定设计开发环境：powerdesigner，mysql5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +80,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,14 +118,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -354,12 +455,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="99.5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
